--- a/Objectrepo.xlsx
+++ b/Objectrepo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E60CB55-602F-44C8-9569-C6B014F70AF5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E9C20-2CD9-4EA6-A9C0-F39A90387D0B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OR_01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -390,7 +390,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Objectrepo.xlsx
+++ b/Objectrepo.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E9C20-2CD9-4EA6-A9C0-F39A90387D0B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B5ED5B-E72D-4B9C-924B-191BADB6F014}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OR_01" sheetId="1" r:id="rId1"/>
+    <sheet name="OR_02" sheetId="2" r:id="rId2"/>
+    <sheet name="OR_03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -390,7 +392,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,4 +448,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F310B51C-6754-4087-BA60-E88BEBF8EF9F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AEF05A-34A4-47EA-BE1C-D21E309FD18E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Objectrepo.xlsx
+++ b/Objectrepo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B5ED5B-E72D-4B9C-924B-191BADB6F014}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B289FEF4-A83F-49EB-85B1-6DCDF5778385}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Objectrepo.xlsx
+++ b/Objectrepo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B289FEF4-A83F-49EB-85B1-6DCDF5778385}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3364B063-18D3-4683-A63E-1E1E7E9D0D41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Chrome</t>
+    <t>Firefox</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Objectrepo.xlsx
+++ b/Objectrepo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3364B063-18D3-4683-A63E-1E1E7E9D0D41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B8EBE-D349-49FF-B852-9A3B4FF0DDD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>signIn</t>
   </si>
   <si>
-    <t>//*[@id="emailId"]</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Firefox</t>
+  </si>
+  <si>
+    <t>//*[@id="emai"]</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,10 +411,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,10 +435,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Objectrepo.xlsx
+++ b/Objectrepo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B8EBE-D349-49FF-B852-9A3B4FF0DDD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDB6057-7A6F-467B-912D-1E39DBA9F057}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OR_01" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Object</t>
   </si>
@@ -51,14 +51,26 @@
     <t>Firefox</t>
   </si>
   <si>
-    <t>//*[@id="emai"]</t>
+    <t>//*[@id="emailId"]</t>
+  </si>
+  <si>
+    <t>https://www.google.com/?gws_rd=ssl</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Urlx</t>
+  </si>
+  <si>
+    <t>https://mail.google.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,14 +82,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,17 +104,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,14 +393,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -422,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,36 +444,109 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{CFD09C26-1C82-4973-B92C-FF5A916A4358}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F310B51C-6754-4087-BA60-E88BEBF8EF9F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AEF05A-34A4-47EA-BE1C-D21E309FD18E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>